--- a/biology/Médecine/1948_en_santé_et_médecine/1948_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1948_en_santé_et_médecine/1948_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1948_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1948_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1948 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1948_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1948_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7 avril : entrée en vigueur de la Constitution de l'Organisation mondiale de la santé (OMS)[1].
-Berta Bobath (1907-1991) crée une méthode de réhabilitation et de traitement connue sous le nom de Bobath concept (en)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7 avril : entrée en vigueur de la Constitution de l'Organisation mondiale de la santé (OMS).
+Berta Bobath (1907-1991) crée une méthode de réhabilitation et de traitement connue sous le nom de Bobath concept (en).
 Camille Guérin préside le premier congrès international du BCG.</t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1948_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1948_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le chimiste suisse Paul Hermann Müller (1899-1965), qui pourtant n'est pas l'inventeur du DDT[3], reçoit le prix Nobel de physiologie ou médecine « pour sa découverte de la grande efficacité du DDT en tant que poison contre divers arthropodes[4]. »</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le chimiste suisse Paul Hermann Müller (1899-1965), qui pourtant n'est pas l'inventeur du DDT, reçoit le prix Nobel de physiologie ou médecine « pour sa découverte de la grande efficacité du DDT en tant que poison contre divers arthropodes. »</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1948_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1948_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>18 août : Frank Grosveld, biologiste néerlandais.</t>
         </is>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1948_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1948_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2 juin : Waldemar Hoven (né en 1903), médecin allemand condamné à mort pour crimes contre l'humanité.</t>
         </is>
